--- a/database/DemoExamineListTestCase.xlsx
+++ b/database/DemoExamineListTestCase.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -143,19 +143,19 @@
     <t>query_005</t>
   </si>
   <si>
-    <t>查询条件【郑现桃】的数据</t>
-  </si>
-  <si>
-    <t>{"search":"郑现桃","start_time":"","end_time":"","page":1,"limit":10}</t>
+    <t>查询条件【赵文言】的数据</t>
+  </si>
+  <si>
+    <t>{"search":"赵文言","start_time":"","end_time":"","page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_006</t>
   </si>
   <si>
-    <t>查询条件【137】的数据</t>
-  </si>
-  <si>
-    <t>{"search":"137","start_time":"","end_time":"","page":1,"limit":10}</t>
+    <t>查询条件【13】的数据</t>
+  </si>
+  <si>
+    <t>{"search":"13","start_time":"","end_time":"","page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_007</t>
@@ -179,29 +179,28 @@
     <t>query_009</t>
   </si>
   <si>
-    <t>查询日期【2021-12-25 - 2021-12-31】的数据</t>
-  </si>
-  <si>
-    <t>{"search":"","start_time":1640361600,"end_time":1640966399,"page":1,"limit":10}</t>
+    <t>查询日期【2022-01-01 - 2022-01-18】的数据</t>
+  </si>
+  <si>
+    <t>{"search":"","start_time":1640966400,"end_time":1642521599,"page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_010</t>
   </si>
   <si>
-    <t>查询【2021-12-25 - 2021-12-31】
-和手机号【13723451234】</t>
-  </si>
-  <si>
-    <t>{"search":"13723451234","start_time":1640361600,"end_time":1640966399,"page":1,"limit":10}</t>
+    <t>查询【2022-01-01 - 2022-01-18】和手机号【13956995716】</t>
+  </si>
+  <si>
+    <t>{"search":"13956995716","start_time":1640966400,"end_time":1642521599,"page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_011</t>
   </si>
   <si>
-    <t>查询【2021-12-25 - 2021-12-31】和姓名【郑现桃】</t>
-  </si>
-  <si>
-    <t>{"search":"郑现桃","start_time":1640361600,"end_time":1640966399,"page":1,"limit":10}</t>
+    <t>查询【2021-12-25 - 2021-12-31】和姓名【侯倩倩】</t>
+  </si>
+  <si>
+    <t>{"search":"侯倩倩","start_time":1640361600,"end_time":1640966399,"page":1,"limit":10}</t>
   </si>
 </sst>
 </file>
@@ -209,9 +208,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -252,8 +251,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +290,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +303,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -288,105 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -403,13 +402,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,67 +558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,97 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +611,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,6 +646,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,67 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,145 +716,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,14 +1264,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="15" style="8" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="56" style="8" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="8" customWidth="1"/>
@@ -1745,7 +1744,7 @@
       <c r="C27" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M10">
+  <autoFilter ref="A1:M12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1801,7 +1800,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
